--- a/DesignerConfigs/Datas/test/multi_level_title.xlsx
+++ b/DesignerConfigs/Datas/test/multi_level_title.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB52145C-FDE0-445B-BFA0-46B5FB8E52C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86A45C3-8663-4C4F-B4E3-DC75109055AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="26100" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>x1</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>x3</t>
   </si>
   <si>
     <t>y2</t>
@@ -98,13 +92,21 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>x2&amp;multi_rows=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3&amp;multi_rows=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -203,7 +205,8 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -216,7 +219,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -498,7 +500,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -524,98 +526,98 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -623,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>2</v>

--- a/DesignerConfigs/Datas/test/multi_level_title.xlsx
+++ b/DesignerConfigs/Datas/test/multi_level_title.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86A45C3-8663-4C4F-B4E3-DC75109055AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224BB7CB-AAC9-45E4-91B7-B9D7EF8947A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31875" yWindow="3075" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
-  <si>
-    <t>##</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -46,9 +43,6 @@
     <t>z3</t>
   </si>
   <si>
-    <t>是否导出</t>
-  </si>
-  <si>
     <t>禁止</t>
   </si>
   <si>
@@ -67,17 +61,19 @@
     <t xml:space="preserve">  x6:float</t>
   </si>
   <si>
-    <t>注释行</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 随便填</t>
-  </si>
-  <si>
     <t>xxx</t>
   </si>
   <si>
+    <t>x2&amp;multi_rows=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3&amp;multi_rows=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>t</t>
+      <t>#</t>
     </r>
     <r>
       <rPr>
@@ -88,16 +84,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>itle_rows=5</t>
+      <t>#</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>x2&amp;multi_rows=1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3&amp;multi_rows=1</t>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#field</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -219,6 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -497,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,156 +529,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" t="s">
+      <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L9" s="1"/>
+      <c r="L7" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A2:A4"/>
+  <mergeCells count="4">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignerConfigs/Datas/test/multi_level_title.xlsx
+++ b/DesignerConfigs/Datas/test/multi_level_title.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224BB7CB-AAC9-45E4-91B7-B9D7EF8947A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C51389-BB0C-4FBB-8096-D41A9D617F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31875" yWindow="3075" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="1590" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -62,14 +62,6 @@
   </si>
   <si>
     <t>xxx</t>
-  </si>
-  <si>
-    <t>x2&amp;multi_rows=1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3&amp;multi_rows=1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -105,6 +97,46 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>*x2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*x3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>##type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,H2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>array,H2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了第1行以外的##行、##type行、##field行可以随意组织顺序，但上级##field必须在下级##field之前</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -113,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +192,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -208,10 +249,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -224,7 +266,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -503,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -529,8 +576,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
+      <c r="A1" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -538,139 +585,178 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="A4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>1</v>
+      <c r="A5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
       <c r="G6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L7" s="1"/>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="L8" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="B8:G8"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DesignerConfigs/Datas/test/multi_level_title.xlsx
+++ b/DesignerConfigs/Datas/test/multi_level_title.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C51389-BB0C-4FBB-8096-D41A9D617F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F96608-C67A-48A0-8BAE-BD8C9F713729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="1590" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="1380" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,23 +81,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#field</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>*x2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -135,6 +118,10 @@
   </si>
   <si>
     <t>除了第1行以外的##行、##type行、##field行可以随意组织顺序，但上级##field必须在下级##field之前</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>##+</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -254,6 +241,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -265,12 +258,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -553,7 +540,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -585,52 +572,52 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="9"/>
       <c r="F3" t="s">
         <v>4</v>
       </c>
@@ -649,7 +636,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -732,16 +719,16 @@
     </row>
     <row r="8" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="L8" s="1"/>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/multi_level_title.xlsx
+++ b/DesignerConfigs/Datas/test/multi_level_title.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F96608-C67A-48A0-8BAE-BD8C9F713729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FD4AF5-CF4E-41AF-B118-1147015AF336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="1380" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="1725" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -122,6 +122,26 @@
   </si>
   <si>
     <t>##+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>z2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>z3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>array,H2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -554,15 +574,15 @@
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="13.25" customWidth="1"/>
     <col min="9" max="9" width="19.375" customWidth="1"/>
-    <col min="12" max="12" width="16.625" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
-    <col min="22" max="22" width="20.375" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
     <col min="23" max="23" width="14.125" customWidth="1"/>
-    <col min="33" max="33" width="11.5" customWidth="1"/>
-    <col min="34" max="34" width="28.75" customWidth="1"/>
+    <col min="24" max="24" width="20.375" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="35" max="35" width="11.5" customWidth="1"/>
+    <col min="36" max="36" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -585,8 +605,20 @@
         <v>16</v>
       </c>
       <c r="J1" s="8"/>
+      <c r="K1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -609,8 +641,20 @@
         <v>22</v>
       </c>
       <c r="J2" s="8"/>
+      <c r="K2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -633,8 +677,26 @@
       <c r="J3" t="s">
         <v>6</v>
       </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8">
+        <v>1</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="7">
+        <v>2</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="S3" s="9">
+        <v>3</v>
+      </c>
+      <c r="T3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -644,8 +706,32 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -674,7 +760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -702,8 +788,26 @@
       <c r="J6">
         <v>2</v>
       </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="O6">
+        <v>23</v>
+      </c>
+      <c r="P6">
+        <v>22</v>
+      </c>
+      <c r="Q6">
+        <v>32</v>
+      </c>
+      <c r="R6">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G7">
         <v>4</v>
       </c>
@@ -717,7 +821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -729,10 +833,77 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>11</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>113</v>
+      </c>
+      <c r="M9">
+        <v>112</v>
+      </c>
+      <c r="O9">
+        <v>123</v>
+      </c>
+      <c r="P9">
+        <v>122</v>
+      </c>
+      <c r="S9">
+        <v>132</v>
+      </c>
+      <c r="T9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K2:T2"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:H1"/>

--- a/DesignerConfigs/Datas/test/multi_level_title.xlsx
+++ b/DesignerConfigs/Datas/test/multi_level_title.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FD4AF5-CF4E-41AF-B118-1147015AF336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E0552D-4643-4A31-B9B0-D068EE6EA997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="1725" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29550" yWindow="1965" windowWidth="26850" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -142,6 +142,30 @@
   </si>
   <si>
     <t>array,H2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2_0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>__type__</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>z2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>z3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -261,23 +285,23 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -557,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -570,19 +594,19 @@
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="18.375" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="19.375" customWidth="1"/>
-    <col min="13" max="13" width="16.625" customWidth="1"/>
-    <col min="23" max="23" width="14.125" customWidth="1"/>
-    <col min="24" max="24" width="20.375" customWidth="1"/>
-    <col min="25" max="25" width="14.125" customWidth="1"/>
-    <col min="35" max="35" width="11.5" customWidth="1"/>
-    <col min="36" max="36" width="28.75" customWidth="1"/>
+    <col min="6" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="19.375" customWidth="1"/>
+    <col min="16" max="16" width="16.625" customWidth="1"/>
+    <col min="26" max="26" width="14.125" customWidth="1"/>
+    <col min="27" max="27" width="20.375" customWidth="1"/>
+    <col min="28" max="28" width="14.125" customWidth="1"/>
+    <col min="38" max="38" width="11.5" customWidth="1"/>
+    <col min="39" max="39" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -597,28 +621,33 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -633,70 +662,84 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="7"/>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="4">
         <v>0</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="5">
         <v>1</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="7">
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="4">
         <v>2</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="9">
+      <c r="U3" s="4"/>
+      <c r="V3" s="7">
         <v>3</v>
       </c>
-      <c r="T3" s="9"/>
+      <c r="W3" s="7"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -706,21 +749,12 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="P4" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" t="s">
-        <v>27</v>
-      </c>
       <c r="R4" t="s">
         <v>28</v>
       </c>
@@ -728,10 +762,19 @@
         <v>27</v>
       </c>
       <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
         <v>28</v>
       </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -747,20 +790,20 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -776,66 +819,69 @@
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
         <v>13</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>12</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>23</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>22</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>32</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="J7">
         <v>4</v>
       </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="M8" s="1"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>11</v>
       </c>
@@ -851,67 +897,78 @@
       <c r="F9">
         <v>14</v>
       </c>
-      <c r="G9">
-        <v>12</v>
+      <c r="G9" t="s">
+        <v>36</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>12</v>
       </c>
       <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9">
         <v>113</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>112</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>123</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>122</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>132</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="G10">
-        <v>14</v>
-      </c>
-      <c r="H10">
-        <v>13</v>
-      </c>
-      <c r="I10">
-        <v>13</v>
-      </c>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="J10">
         <v>14</v>
       </c>
+      <c r="K10">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <v>13</v>
+      </c>
+      <c r="M10">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="B8:G8"/>
+  <mergeCells count="16">
+    <mergeCell ref="B8:J8"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="N1:W1"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="N2:W2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignerConfigs/Datas/test/multi_level_title.xlsx
+++ b/DesignerConfigs/Datas/test/multi_level_title.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E0552D-4643-4A31-B9B0-D068EE6EA997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29550" yWindow="1965" windowWidth="26850" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23610" windowHeight="8865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,206 +14,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>y2</t>
-  </si>
-  <si>
-    <t>y3</t>
-  </si>
-  <si>
-    <t>z2</t>
-  </si>
-  <si>
-    <t>z3</t>
-  </si>
-  <si>
-    <t>禁止</t>
-  </si>
-  <si>
-    <t>x2:byte</t>
-  </si>
-  <si>
-    <t>x3:short</t>
-  </si>
-  <si>
-    <t>x4:int</t>
-  </si>
-  <si>
-    <t>x5:long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  x6:float</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>#</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>#</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2_0</t>
   </si>
   <si>
     <t>*x2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>*x3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x4</t>
   </si>
   <si>
     <t>##type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>H1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2?</t>
   </si>
   <si>
     <t>list,H2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>array,H2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>##+</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>$type</t>
+  </si>
+  <si>
+    <t>z2</t>
+  </si>
+  <si>
+    <t>z3</t>
+  </si>
+  <si>
+    <t>禁止</t>
+  </si>
+  <si>
+    <t>x2:byte</t>
+  </si>
+  <si>
+    <t>x3:short</t>
+  </si>
+  <si>
+    <t>x4:int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  x6:float</t>
+  </si>
+  <si>
+    <t>x5:long</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
   <si>
     <t>##</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>除了第1行以外的##行、##type行、##field行可以随意组织顺序，但上级##field必须在下级##field之前</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>##+</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>z2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>z3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>yyy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>array,H2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2_0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>__type__</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>z2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>z3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>H2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -227,13 +175,142 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,18 +325,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -267,57 +512,331 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="30" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="29" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
-    <cellStyle name="适中" xfId="3" builtinId="28"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -575,240 +1094,240 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B8" sqref="B8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="23.1238095238095" customWidth="1"/>
+    <col min="2" max="2" width="15.5047619047619" customWidth="1"/>
+    <col min="3" max="3" width="17.3714285714286" customWidth="1"/>
+    <col min="4" max="4" width="18.3714285714286" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="11" width="13.25" customWidth="1"/>
-    <col min="12" max="12" width="19.375" customWidth="1"/>
-    <col min="16" max="16" width="16.625" customWidth="1"/>
-    <col min="26" max="26" width="14.125" customWidth="1"/>
-    <col min="27" max="27" width="20.375" customWidth="1"/>
-    <col min="28" max="28" width="14.125" customWidth="1"/>
-    <col min="38" max="38" width="11.5" customWidth="1"/>
-    <col min="39" max="39" width="28.75" customWidth="1"/>
+    <col min="6" max="9" width="16.3714285714286" customWidth="1"/>
+    <col min="10" max="10" width="14.3714285714286" customWidth="1"/>
+    <col min="11" max="11" width="13.247619047619" customWidth="1"/>
+    <col min="12" max="12" width="19.3714285714286" customWidth="1"/>
+    <col min="16" max="16" width="16.6285714285714" customWidth="1"/>
+    <col min="26" max="26" width="14.1238095238095" customWidth="1"/>
+    <col min="27" max="27" width="20.3714285714286" customWidth="1"/>
+    <col min="28" max="28" width="14.1238095238095" customWidth="1"/>
+    <col min="38" max="38" width="11.5047619047619" customWidth="1"/>
+    <col min="39" max="39" width="28.752380952381" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="8">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="8">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4" t="s">
+      <c r="U3" s="8"/>
+      <c r="V3" s="4">
+        <v>3</v>
+      </c>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6" t="s">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="5">
-        <v>1</v>
-      </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="4">
-        <v>2</v>
-      </c>
-      <c r="U3" s="4"/>
-      <c r="V3" s="7">
-        <v>3</v>
-      </c>
-      <c r="W3" s="7"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:21">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -850,7 +1369,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="10:13">
       <c r="J7">
         <v>4</v>
       </c>
@@ -864,29 +1383,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="57.75" customHeight="1" spans="1:16">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="P8" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:23">
       <c r="B9">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -898,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -937,7 +1456,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="10:13">
       <c r="J10">
         <v>14</v>
       </c>
@@ -953,25 +1472,25 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B8:J8"/>
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="N1:W1"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="N2:W2"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:U3"/>
-    <mergeCell ref="N1:W1"/>
     <mergeCell ref="V3:W3"/>
-    <mergeCell ref="N2:W2"/>
+    <mergeCell ref="B8:J8"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>